--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P5_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.8148294795408</v>
+        <v>841.4728792860781</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.72482947953772</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.174190424042935</v>
+        <v>7.549255196917892</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.174190424042935</v>
+        <v>7.20453102425245</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.09000000000313</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.73709266206896</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>17.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.45483069212263</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.95791286732633</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.68569098426262</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,7 +1031,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1034,7 +1045,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1073,57 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.765</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5599999999995</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.495</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.01</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999913</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.96999999999912</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0050000000005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>209.4550000000005</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>201.76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>214.75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>207.5750000000005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>208.0050000000005</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>209.4550000000005</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>201.76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>214.75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.5750000000005</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1503,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.7250000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.12000000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>98.26500000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>96.94500000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>103.5650000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>126.9700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>127.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>136.8550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>127.2550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>123.4800000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.005000000000546</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.455000000000517</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.575000000000499</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -2015,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2026,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2037,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2208,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2166,7 +2219,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2177,7 +2230,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2188,7 +2241,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2199,12 +2252,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
